--- a/degerler.xlsx
+++ b/degerler.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hakan\Documents\GitHub\EE463-Hardware-Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="14940" windowHeight="4620"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="14940" windowHeight="4620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>25A</t>
   </si>
@@ -30,21 +35,12 @@
     <t>diode</t>
   </si>
   <si>
-    <t>450V</t>
-  </si>
-  <si>
     <t>10A</t>
   </si>
   <si>
     <t>inductor(rect)</t>
   </si>
   <si>
-    <t>capacitorrect)</t>
-  </si>
-  <si>
-    <t>20A</t>
-  </si>
-  <si>
     <t>150mH</t>
   </si>
   <si>
@@ -72,16 +68,54 @@
     <t>300V</t>
   </si>
   <si>
-    <t>0.1</t>
+    <t>3.6 - (-14)  Capacitor akımı</t>
+  </si>
+  <si>
+    <t>1 - (-3.5)</t>
+  </si>
+  <si>
+    <t>0.1H</t>
+  </si>
+  <si>
+    <t>voltaj maks 350 oluyor ama dc voltaj 280</t>
+  </si>
+  <si>
+    <t>450V (400V alınabilir)</t>
+  </si>
+  <si>
+    <t>capacitor(rect)</t>
+  </si>
+  <si>
+    <t>1 adet</t>
+  </si>
+  <si>
+    <t>7 adet yada 1 tane 6lı 1 tane ayrı</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -109,21 +143,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Ofis Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Ofis">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -161,9 +208,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Ofis">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -195,9 +242,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -229,9 +294,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Ofis">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -404,119 +487,153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8">
-      <c r="C1" t="s">
+    <row r="1" spans="3:8" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="3:8">
+    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:8">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
         <v>1</v>
       </c>
       <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="3:8">
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
         <v>16</v>
       </c>
-      <c r="H4" t="s">
+    </row>
+    <row r="6" spans="3:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
